--- a/Resultados/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_6m_0_LM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_6m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_6B9F76BCE5D8A72DD1741CB3E5F0F9FCFB481709" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3DE694-3CEC-488F-932A-16C2F7DCC0B1}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_6B9F76BCE5D8A72DD1741CB3E5F0F9FCFB481709" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC784783-F014-49C6-A41B-89D695B2DF4B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Geral" sheetId="33" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>field_16ha_100ha_18%_6m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -7947,13 +7950,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232C455E-7073-4DD0-BFE8-FDA86AE7DB28}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -7981,8 +7984,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8019,7 +8025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>1.21696</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>1.2889920000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>1.3329920000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>1.3620320000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8174,7 +8180,7 @@
         <v>1.3763839999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>1.3908</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>1.4016</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>1.4159680000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>1.4127359999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8329,7 +8335,7 @@
         <v>1.4135040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>1.412704</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>1.412704</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>1.4155520000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -8453,7 +8459,7 @@
         <v>1.411424</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -8484,7 +8490,7 @@
         <v>1.4076960000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -8515,7 +8521,7 @@
         <v>1.4049440000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -8577,7 +8583,7 @@
         <v>1.4082079999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>1.4006399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -8639,7 +8645,7 @@
         <v>1.3895519999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>1.38792</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>1.3860480000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>1.3775679999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -8763,7 +8769,7 @@
         <v>1.3772960000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>1.3703200000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -8825,7 +8831,7 @@
         <v>1.3687200000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -8856,7 +8862,7 @@
         <v>1.3635360000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -8900,9 +8906,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9142,7 +9148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9302,7 +9308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9462,7 +9468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9542,7 +9548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9622,7 +9628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9862,7 +9868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9942,7 +9948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10022,7 +10028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10102,7 +10108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10194,9 +10200,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10276,7 +10282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10356,7 +10362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10436,7 +10442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10516,7 +10522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10596,7 +10602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10676,7 +10682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10996,7 +11002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11076,7 +11082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11236,7 +11242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11316,7 +11322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11396,7 +11402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11556,7 +11562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11716,7 +11722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11796,7 +11802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11876,7 +11882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11956,7 +11962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12036,7 +12042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12116,7 +12122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12276,7 +12282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12356,7 +12362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12436,7 +12442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12528,9 +12534,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12610,7 +12616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12702,9 +12708,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12784,7 +12790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12864,7 +12870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12944,7 +12950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13036,9 +13042,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13118,7 +13124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13198,7 +13204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13518,7 +13524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13598,7 +13604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13758,7 +13764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13838,7 +13844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13918,7 +13924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13998,7 +14004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -14078,7 +14084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -14158,7 +14164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14250,9 +14256,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14332,7 +14338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14412,7 +14418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14492,7 +14498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14572,7 +14578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14652,7 +14658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14744,9 +14750,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14826,7 +14832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14906,7 +14912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14986,7 +14992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15066,7 +15072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15226,7 +15232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15386,7 +15392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -15466,7 +15472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -15546,7 +15552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -15626,7 +15632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -15706,7 +15712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -15786,7 +15792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -15866,7 +15872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -15946,7 +15952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16026,7 +16032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -16106,7 +16112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -16186,7 +16192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -16266,7 +16272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -16346,7 +16352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -16426,7 +16432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -16506,7 +16512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -16586,7 +16592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -16678,9 +16684,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16760,7 +16766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16840,7 +16846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16920,7 +16926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17000,7 +17006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17080,7 +17086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17160,7 +17166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17240,7 +17246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17320,7 +17326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -17400,7 +17406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17492,9 +17498,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17574,7 +17580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17654,7 +17660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17814,7 +17820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17894,7 +17900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17974,7 +17980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18054,7 +18060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18134,7 +18140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -18294,7 +18300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -18374,7 +18380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -18454,7 +18460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -18534,7 +18540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -18614,7 +18620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -18694,7 +18700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -18774,7 +18780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -18854,7 +18860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -18946,9 +18952,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19028,7 +19034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19120,9 +19126,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19202,7 +19208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19282,7 +19288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19362,7 +19368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19442,7 +19448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -19522,7 +19528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19602,7 +19608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19682,7 +19688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19762,7 +19768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19842,7 +19848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19922,7 +19928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -20002,7 +20008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -20082,7 +20088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -20162,7 +20168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -20254,9 +20260,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20336,7 +20342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20416,7 +20422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20496,7 +20502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20588,9 +20594,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20670,7 +20676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20762,9 +20768,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20844,7 +20850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20924,7 +20930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21004,7 +21010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21084,7 +21090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21164,7 +21170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21244,7 +21250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21324,7 +21330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21404,7 +21410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21484,7 +21490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21564,7 +21570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21656,9 +21662,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21738,7 +21744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -21830,9 +21836,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21912,7 +21918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -21992,7 +21998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22072,7 +22078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -22152,7 +22158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -22232,7 +22238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -22312,7 +22318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -22392,7 +22398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -22472,7 +22478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -22552,7 +22558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -22632,7 +22638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -22712,7 +22718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -22792,7 +22798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -22872,7 +22878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -22952,7 +22958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23032,7 +23038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -23112,7 +23118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -23192,7 +23198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -23272,7 +23278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -23364,9 +23370,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23446,7 +23452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23526,7 +23532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23606,7 +23612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -23686,7 +23692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -23766,7 +23772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -23846,7 +23852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -23926,7 +23932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -24006,7 +24012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -24086,7 +24092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -24166,7 +24172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -24246,7 +24252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -24326,7 +24332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -24406,7 +24412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -24486,7 +24492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -24566,7 +24572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -24646,7 +24652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -24726,7 +24732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -24806,7 +24812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -24886,7 +24892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -24966,7 +24972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -25046,7 +25052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -25126,7 +25132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -25206,7 +25212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -25286,7 +25292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -25366,7 +25372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -25446,7 +25452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -25538,9 +25544,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25620,7 +25626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25700,7 +25706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25780,7 +25786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25860,7 +25866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25940,7 +25946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -26020,7 +26026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -26112,9 +26118,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26194,7 +26200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -26274,7 +26280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26354,7 +26360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -26434,7 +26440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -26514,7 +26520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -26594,7 +26600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -26674,7 +26680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -26754,7 +26760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -26834,7 +26840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -26914,7 +26920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -26994,7 +27000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -27074,7 +27080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -27154,7 +27160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -27234,7 +27240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -27314,7 +27320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -27394,7 +27400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -27474,7 +27480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -27554,7 +27560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27634,7 +27640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -27714,7 +27720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27794,7 +27800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -27886,9 +27892,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27968,7 +27974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -28048,7 +28054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -28128,7 +28134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -28208,7 +28214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -28288,7 +28294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -28368,7 +28374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -28448,7 +28454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -28528,7 +28534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -28620,9 +28626,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28702,7 +28708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -28782,7 +28788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -28862,7 +28868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -28942,7 +28948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -29022,7 +29028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -29102,7 +29108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -29182,7 +29188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -29262,7 +29268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -29342,7 +29348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -29422,7 +29428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -29502,7 +29508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -29582,7 +29588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -29674,9 +29680,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29756,7 +29762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -29836,7 +29842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -29916,7 +29922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -29996,7 +30002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -30076,7 +30082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -30156,7 +30162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -30236,7 +30242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -30316,7 +30322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -30396,7 +30402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -30476,7 +30482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -30556,7 +30562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -30636,7 +30642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -30716,7 +30722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -30796,7 +30802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -30876,7 +30882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -30956,7 +30962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -31036,7 +31042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -31116,7 +31122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -31196,7 +31202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -31276,7 +31282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -31356,7 +31362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -31436,7 +31442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -31516,7 +31522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -31596,7 +31602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -31688,9 +31694,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31770,7 +31776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -31850,7 +31856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31930,7 +31936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -32010,7 +32016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -32102,9 +32108,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32184,7 +32190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -32264,7 +32270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -32344,7 +32350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -32424,7 +32430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -32504,7 +32510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -32584,7 +32590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -32664,7 +32670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -32744,7 +32750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -32824,7 +32830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -32904,7 +32910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -32984,7 +32990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -33064,7 +33070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -33144,7 +33150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -33224,7 +33230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -33304,7 +33310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -33384,7 +33390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -33464,7 +33470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -33544,7 +33550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -33624,7 +33630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -33704,7 +33710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -33784,7 +33790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -33864,7 +33870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -33944,7 +33950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -34024,7 +34030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -34104,7 +34110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -34184,7 +34190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -34264,7 +34270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -34344,7 +34350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -34424,7 +34430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -34504,7 +34510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -34584,7 +34590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
@@ -34664,7 +34670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>18</v>
       </c>
@@ -34744,7 +34750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19</v>
       </c>
@@ -34824,7 +34830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -34904,7 +34910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -34984,7 +34990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -35064,7 +35070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23</v>
       </c>
@@ -35144,7 +35150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -35224,7 +35230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -35304,7 +35310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -35384,7 +35390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -35464,7 +35470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -35544,7 +35550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -35624,7 +35630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -35704,7 +35710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -35784,7 +35790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -35864,7 +35870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -35944,7 +35950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -36024,7 +36030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -36104,7 +36110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -36184,7 +36190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -36264,7 +36270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -36344,7 +36350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>13</v>
       </c>
@@ -36424,7 +36430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -36504,7 +36510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -36584,7 +36590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -36664,7 +36670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17</v>
       </c>
@@ -36744,7 +36750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>18</v>
       </c>
@@ -36824,7 +36830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -36904,7 +36910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -36984,7 +36990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -37064,7 +37070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -37144,7 +37150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -37224,7 +37230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -37304,7 +37310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -37384,7 +37390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -37464,7 +37470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -37544,7 +37550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -37624,7 +37630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -37704,7 +37710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -37784,7 +37790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -37864,7 +37870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -37944,7 +37950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -38024,7 +38030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -38104,7 +38110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -38184,7 +38190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -38264,7 +38270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9</v>
       </c>
@@ -38344,7 +38350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10</v>
       </c>
@@ -38424,7 +38430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -38504,7 +38510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -38584,7 +38590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -38664,7 +38670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -38744,7 +38750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -38824,7 +38830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -38904,7 +38910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -38984,7 +38990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -39064,7 +39070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
@@ -39144,7 +39150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -39224,7 +39230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10</v>
       </c>
@@ -39304,7 +39310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
@@ -39384,7 +39390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12</v>
       </c>
@@ -39464,7 +39470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>13</v>
       </c>
@@ -39544,7 +39550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -39624,7 +39630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -39704,7 +39710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -39784,7 +39790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -39864,7 +39870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -39944,7 +39950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -40024,7 +40030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -40104,7 +40110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
@@ -40184,7 +40190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7</v>
       </c>
@@ -40264,7 +40270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>8</v>
       </c>
@@ -40344,7 +40350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9</v>
       </c>
@@ -40424,7 +40430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10</v>
       </c>
@@ -40504,7 +40510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11</v>
       </c>
@@ -40584,7 +40590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12</v>
       </c>
@@ -40664,7 +40670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>13</v>
       </c>
@@ -40744,7 +40750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14</v>
       </c>
@@ -40824,7 +40830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15</v>
       </c>
@@ -40904,7 +40910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16</v>
       </c>
@@ -40984,7 +40990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>17</v>
       </c>
@@ -41064,7 +41070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>18</v>
       </c>
@@ -41144,7 +41150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -41224,7 +41230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20</v>
       </c>
@@ -41304,7 +41310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>21</v>
       </c>
@@ -41384,7 +41390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>22</v>
       </c>
@@ -41464,7 +41470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23</v>
       </c>
@@ -41544,7 +41550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24</v>
       </c>
@@ -41624,7 +41630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>25</v>
       </c>
@@ -41704,7 +41710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>26</v>
       </c>
@@ -41784,7 +41790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>27</v>
       </c>
@@ -41864,7 +41870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -41944,7 +41950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -42024,7 +42030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -42104,7 +42110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -42184,7 +42190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -42264,7 +42270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -42344,7 +42350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -42424,7 +42430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -42504,7 +42510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -42584,7 +42590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -42664,7 +42670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -42744,7 +42750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -42824,7 +42830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -42904,7 +42910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -42984,7 +42990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10</v>
       </c>
@@ -43064,7 +43070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11</v>
       </c>
@@ -43144,7 +43150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12</v>
       </c>
@@ -43224,7 +43230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>13</v>
       </c>
@@ -43304,7 +43310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -43384,7 +43390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -43464,7 +43470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -43544,7 +43550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -43624,7 +43630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -43704,7 +43710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -43784,7 +43790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -43864,7 +43870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -43944,7 +43950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -44024,7 +44030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -44104,7 +44110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -44184,7 +44190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -44264,7 +44270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -44344,7 +44350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -44424,7 +44430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -44504,7 +44510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -44584,7 +44590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11</v>
       </c>
@@ -44664,7 +44670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>12</v>
       </c>
@@ -44744,7 +44750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>13</v>
       </c>
@@ -44824,7 +44830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>
@@ -44904,7 +44910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15</v>
       </c>
@@ -44984,7 +44990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16</v>
       </c>
@@ -45064,7 +45070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -45144,7 +45150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18</v>
       </c>
@@ -45224,7 +45230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19</v>
       </c>
@@ -45304,7 +45310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20</v>
       </c>
@@ -45384,7 +45390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21</v>
       </c>
@@ -45464,7 +45470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>22</v>
       </c>
@@ -45544,7 +45550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -45624,7 +45630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -45704,7 +45710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2</v>
       </c>
@@ -45784,7 +45790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -45864,7 +45870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4</v>
       </c>
@@ -45944,7 +45950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -46024,7 +46030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6</v>
       </c>
@@ -46104,7 +46110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7</v>
       </c>
@@ -46184,7 +46190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -46264,7 +46270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -46344,7 +46350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -46424,7 +46430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2</v>
       </c>
@@ -46504,7 +46510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -46584,7 +46590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4</v>
       </c>
@@ -46664,7 +46670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5</v>
       </c>
@@ -46744,7 +46750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>6</v>
       </c>
@@ -46824,7 +46830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7</v>
       </c>
@@ -46904,7 +46910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -46984,7 +46990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -47064,7 +47070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>10</v>
       </c>
@@ -47144,7 +47150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>11</v>
       </c>
@@ -47224,7 +47230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -47304,7 +47310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>13</v>
       </c>
@@ -47384,7 +47390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>14</v>
       </c>
@@ -47464,7 +47470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>15</v>
       </c>
@@ -47544,7 +47550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>16</v>
       </c>
@@ -47624,7 +47630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -47704,7 +47710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0</v>
       </c>
@@ -47784,7 +47790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -47864,7 +47870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2</v>
       </c>
@@ -47944,7 +47950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0</v>
       </c>
@@ -48024,7 +48030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -48104,7 +48110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -48184,7 +48190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2</v>
       </c>
@@ -48264,7 +48270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -48344,7 +48350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4</v>
       </c>
@@ -48424,7 +48430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5</v>
       </c>
@@ -48504,7 +48510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6</v>
       </c>
@@ -48584,7 +48590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7</v>
       </c>
@@ -48664,7 +48670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>8</v>
       </c>
@@ -48744,7 +48750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9</v>
       </c>
@@ -48824,7 +48830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0</v>
       </c>
@@ -48904,7 +48910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>0</v>
       </c>
@@ -48984,7 +48990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -49064,7 +49070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2</v>
       </c>
@@ -49144,7 +49150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -49224,7 +49230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -49304,7 +49310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -49384,7 +49390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>6</v>
       </c>
@@ -49464,7 +49470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7</v>
       </c>
@@ -49544,7 +49550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8</v>
       </c>
@@ -49624,7 +49630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9</v>
       </c>
@@ -49704,7 +49710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -49784,7 +49790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11</v>
       </c>
@@ -49864,7 +49870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12</v>
       </c>
@@ -49944,7 +49950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13</v>
       </c>
@@ -50024,7 +50030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14</v>
       </c>
@@ -50104,7 +50110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>15</v>
       </c>
@@ -50184,7 +50190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>16</v>
       </c>
@@ -50264,7 +50270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>17</v>
       </c>
@@ -50344,7 +50350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -50424,7 +50430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -50504,7 +50510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2</v>
       </c>
@@ -50584,7 +50590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3</v>
       </c>
@@ -50664,7 +50670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -50744,7 +50750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>5</v>
       </c>
@@ -50824,7 +50830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -50904,7 +50910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>7</v>
       </c>
@@ -50984,7 +50990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8</v>
       </c>
@@ -51064,7 +51070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9</v>
       </c>
@@ -51144,7 +51150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>10</v>
       </c>
@@ -51224,7 +51230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11</v>
       </c>
@@ -51304,7 +51310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>12</v>
       </c>
@@ -51384,7 +51390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>13</v>
       </c>
@@ -51464,7 +51470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14</v>
       </c>
@@ -51544,7 +51550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>15</v>
       </c>
@@ -51624,7 +51630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>16</v>
       </c>
@@ -51704,7 +51710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>17</v>
       </c>
@@ -51784,7 +51790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>18</v>
       </c>
@@ -51864,7 +51870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>19</v>
       </c>
@@ -51944,7 +51950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20</v>
       </c>
@@ -52024,7 +52030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>21</v>
       </c>
@@ -52104,7 +52110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>22</v>
       </c>
@@ -52184,7 +52190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>23</v>
       </c>
@@ -52264,7 +52270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>24</v>
       </c>
@@ -52344,7 +52350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>25</v>
       </c>
@@ -52424,7 +52430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0</v>
       </c>
@@ -52504,7 +52510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -52584,7 +52590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -52664,7 +52670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>3</v>
       </c>
@@ -52744,7 +52750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4</v>
       </c>
@@ -52824,7 +52830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
@@ -52904,7 +52910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0</v>
       </c>
@@ -52984,7 +52990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -53064,7 +53070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -53144,7 +53150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>3</v>
       </c>
@@ -53224,7 +53230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4</v>
       </c>
@@ -53304,7 +53310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>5</v>
       </c>
@@ -53384,7 +53390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -53464,7 +53470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>7</v>
       </c>
@@ -53544,7 +53550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>8</v>
       </c>
@@ -53624,7 +53630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>9</v>
       </c>
@@ -53704,7 +53710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>10</v>
       </c>
@@ -53784,7 +53790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11</v>
       </c>
@@ -53864,7 +53870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>12</v>
       </c>
@@ -53944,7 +53950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>13</v>
       </c>
@@ -54024,7 +54030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>14</v>
       </c>
@@ -54104,7 +54110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>15</v>
       </c>
@@ -54184,7 +54190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>16</v>
       </c>
@@ -54264,7 +54270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>17</v>
       </c>
@@ -54344,7 +54350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18</v>
       </c>
@@ -54424,7 +54430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>19</v>
       </c>
@@ -54504,7 +54510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>20</v>
       </c>
@@ -54584,7 +54590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -54664,7 +54670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -54744,7 +54750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -54824,7 +54830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3</v>
       </c>
@@ -54904,7 +54910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -54984,7 +54990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>5</v>
       </c>
@@ -55064,7 +55070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6</v>
       </c>
@@ -55144,7 +55150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>7</v>
       </c>
@@ -55224,7 +55230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0</v>
       </c>
@@ -55304,7 +55310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -55384,7 +55390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -55464,7 +55470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -55544,7 +55550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4</v>
       </c>
@@ -55624,7 +55630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>5</v>
       </c>
@@ -55704,7 +55710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -55784,7 +55790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>7</v>
       </c>
@@ -55864,7 +55870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>8</v>
       </c>
@@ -55944,7 +55950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>9</v>
       </c>
@@ -56024,7 +56030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>10</v>
       </c>
@@ -56104,7 +56110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>11</v>
       </c>
@@ -56184,7 +56190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0</v>
       </c>
@@ -56264,7 +56270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -56344,7 +56350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -56424,7 +56430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3</v>
       </c>
@@ -56516,24 +56522,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -56544,7 +56550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56558,7 +56564,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56572,7 +56578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56586,7 +56592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56600,7 +56606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56614,7 +56620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56628,7 +56634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56642,7 +56648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56656,7 +56662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56670,7 +56676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56684,7 +56690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56698,7 +56704,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56712,7 +56718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56726,7 +56732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56740,7 +56746,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56754,7 +56760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56768,7 +56774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56782,7 +56788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56796,7 +56802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56810,7 +56816,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56824,7 +56830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56838,7 +56844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56852,7 +56858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56866,7 +56872,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56880,7 +56886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56894,7 +56900,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56908,7 +56914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56922,7 +56928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56936,7 +56942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56950,7 +56956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56964,7 +56970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56978,7 +56984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -56992,7 +56998,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57006,7 +57012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57020,7 +57026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57034,7 +57040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57048,7 +57054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57062,7 +57068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57076,7 +57082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57090,7 +57096,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57104,7 +57110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57118,7 +57124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57132,7 +57138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57146,7 +57152,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57160,7 +57166,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57174,7 +57180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 46, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57188,7 +57194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 47, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57202,7 +57208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 48, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57216,7 +57222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 49, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57230,7 +57236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 50, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57244,7 +57250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 51, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57258,7 +57264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 52, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57272,7 +57278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 53, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57286,7 +57292,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 54, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57300,7 +57306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 55, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57314,7 +57320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 56, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57328,7 +57334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 57, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57342,7 +57348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 58, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57356,7 +57362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 59, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57370,7 +57376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 60, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57384,7 +57390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 61, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57398,7 +57404,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 62, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57412,7 +57418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 63, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57426,7 +57432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 64, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57440,7 +57446,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 65, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57454,7 +57460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 66, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57468,7 +57474,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 67, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57482,7 +57488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 68, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57496,7 +57502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 69, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57510,7 +57516,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 70, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57524,7 +57530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 71, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57538,7 +57544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 72, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57552,7 +57558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 73, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57566,7 +57572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 74, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57580,7 +57586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 75, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57594,7 +57600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 76, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57608,7 +57614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 77, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57622,7 +57628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 78, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57636,7 +57642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 79, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57650,7 +57656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 80, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57664,7 +57670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 81, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57678,7 +57684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 82, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57692,7 +57698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 83, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57706,7 +57712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 84, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57720,7 +57726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 85, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57734,7 +57740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 86, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57748,7 +57754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 87, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57762,7 +57768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 88, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57776,7 +57782,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 89, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57790,7 +57796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 90, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57804,7 +57810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 91, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57818,7 +57824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 92, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57832,7 +57838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 93, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57846,7 +57852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 94, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57860,7 +57866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 95, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57874,7 +57880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 96, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57888,7 +57894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 97, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57902,7 +57908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 98, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57916,7 +57922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 99, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57930,7 +57936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 100, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57944,7 +57950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 101, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57958,7 +57964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 102, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57972,7 +57978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 103, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -57986,7 +57992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 104, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58000,7 +58006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 105, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58014,7 +58020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 106, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58028,7 +58034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 107, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58042,7 +58048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 108, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58056,7 +58062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 109, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58070,7 +58076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 110, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58084,7 +58090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 111, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58098,7 +58104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 112, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58112,7 +58118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 113, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58126,7 +58132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 114, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58140,7 +58146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 115, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58154,7 +58160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 116, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58168,7 +58174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 117, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58182,7 +58188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 118, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58196,7 +58202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 119, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58210,7 +58216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 120, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58224,7 +58230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 121, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58238,7 +58244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 122, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58252,7 +58258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 123, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58266,7 +58272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 124, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58280,7 +58286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 125, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58294,7 +58300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 126, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58308,7 +58314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 127, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58322,7 +58328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 128, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58336,7 +58342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 129, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58350,7 +58356,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 130, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58364,7 +58370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 131, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58378,7 +58384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 132, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58392,7 +58398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 133, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58406,7 +58412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 134, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58420,7 +58426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 135, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58434,7 +58440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 136, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58448,7 +58454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 137, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58462,7 +58468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 138, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58476,7 +58482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 139, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58490,7 +58496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 140, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58504,7 +58510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 141, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58518,7 +58524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 142, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58532,7 +58538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 143, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58546,7 +58552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 144, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58560,7 +58566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 145, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58574,7 +58580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 146, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58588,7 +58594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 147, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58602,7 +58608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 148, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58616,7 +58622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 149, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58630,7 +58636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 150, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58644,7 +58650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 151, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58658,7 +58664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 152, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58672,7 +58678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 153, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58686,7 +58692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 154, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58700,7 +58706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 155, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58714,7 +58720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 156, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58728,7 +58734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 157, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58742,7 +58748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 158, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58756,7 +58762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 159, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58770,7 +58776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 160, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58784,7 +58790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 161, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58798,7 +58804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 162, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58812,7 +58818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 163, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58826,7 +58832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 164, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58840,7 +58846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 165, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58854,7 +58860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 166, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58868,7 +58874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 167, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58882,7 +58888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 168, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58896,7 +58902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 169, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58910,7 +58916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 170, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58924,7 +58930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 171, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58938,7 +58944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 172, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58952,7 +58958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 173, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58966,7 +58972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 174, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58980,7 +58986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 175, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -58994,7 +59000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 176, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59008,7 +59014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 177, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59022,7 +59028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 178, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59036,7 +59042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 179, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59050,7 +59056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 180, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59064,7 +59070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 181, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59078,7 +59084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 182, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59092,7 +59098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 183, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59106,7 +59112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 184, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59120,7 +59126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 185, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59134,7 +59140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 186, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59148,7 +59154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 187, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59162,7 +59168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 188, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59176,7 +59182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 189, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59190,7 +59196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 190, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59204,7 +59210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 191, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59218,7 +59224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 192, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59232,7 +59238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 193, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59246,7 +59252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 194, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59260,7 +59266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 195, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59274,7 +59280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 196, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59288,7 +59294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 197, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59302,7 +59308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 198, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59316,7 +59322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 199, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59330,7 +59336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 200, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59344,7 +59350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 201, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59358,7 +59364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 202, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59372,7 +59378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 203, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59386,7 +59392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 204, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59400,7 +59406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 205, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59414,7 +59420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 206, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59428,7 +59434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 207, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59442,7 +59448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 208, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59456,7 +59462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 209, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59470,7 +59476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 210, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59484,7 +59490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 211, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59498,7 +59504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 212, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59512,7 +59518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 213, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59526,7 +59532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 214, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59540,7 +59546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 215, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59554,7 +59560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 216, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59568,7 +59574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 217, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59582,7 +59588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 218, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59596,7 +59602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 219, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59610,7 +59616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 220, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59624,7 +59630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 221, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59638,7 +59644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 222, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59652,7 +59658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 223, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59666,7 +59672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 224, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59680,7 +59686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 225, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59694,7 +59700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 226, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59708,7 +59714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 227, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59722,7 +59728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 228, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59736,7 +59742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 229, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59750,7 +59756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 230, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59764,7 +59770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 231, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59778,7 +59784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 232, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59792,7 +59798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 233, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59806,7 +59812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 234, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59820,7 +59826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 235, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59834,7 +59840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 236, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59848,7 +59854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 237, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59862,7 +59868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 238, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59876,7 +59882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 239, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59890,7 +59896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 240, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59904,7 +59910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 241, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59918,7 +59924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 242, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59932,7 +59938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 243, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59946,7 +59952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 244, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59960,7 +59966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 245, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59974,7 +59980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 246, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -59988,7 +59994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 247, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60002,7 +60008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 248, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60016,7 +60022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 249, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60030,7 +60036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 250, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60044,7 +60050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 251, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60058,7 +60064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 252, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60072,7 +60078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 253, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60086,7 +60092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 254, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60100,7 +60106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 255, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60114,7 +60120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 256, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60128,7 +60134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 257, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60142,7 +60148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 258, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60156,7 +60162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 259, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60170,7 +60176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 260, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60184,7 +60190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 261, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60198,7 +60204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 262, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60212,7 +60218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 263, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60226,7 +60232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 264, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60240,7 +60246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 265, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60254,7 +60260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 266, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60268,7 +60274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 267, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60282,7 +60288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 268, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60296,7 +60302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 269, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60310,7 +60316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 270, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60324,7 +60330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 271, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60338,7 +60344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 272, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60352,7 +60358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 273, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60366,7 +60372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 274, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60380,7 +60386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 275, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60394,7 +60400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 276, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60408,7 +60414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 277, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60422,7 +60428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 278, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60436,7 +60442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 279, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60450,7 +60456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 280, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60464,7 +60470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 281, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60478,7 +60484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 282, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60492,7 +60498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 283, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60506,7 +60512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 284, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60520,7 +60526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 285, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60534,7 +60540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 286, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60548,7 +60554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 287, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60562,7 +60568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 288, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60576,7 +60582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 289, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60590,7 +60596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 290, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60604,7 +60610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 291, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60618,7 +60624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 292, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60632,7 +60638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 293, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60646,7 +60652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 294, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60660,7 +60666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 295, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60674,7 +60680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 296, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60688,7 +60694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 297, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60702,7 +60708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 298, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60716,7 +60722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 299, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60730,7 +60736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 300, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60744,7 +60750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 301, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60758,7 +60764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 302, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60772,7 +60778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 303, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60786,7 +60792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$305, 304, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -60825,134 +60831,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -60969,9 +60975,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -61051,7 +61057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -61131,7 +61137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -61223,9 +61229,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -61305,7 +61311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -61385,7 +61391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -61465,7 +61471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -61545,7 +61551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -61625,7 +61631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -61705,7 +61711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -61785,7 +61791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -61865,7 +61871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -61945,7 +61951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -62025,7 +62031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -62105,7 +62111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -62185,7 +62191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -62265,7 +62271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -62345,7 +62351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -62425,7 +62431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -62505,7 +62511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -62585,7 +62591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -62665,7 +62671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -62745,7 +62751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -62837,9 +62843,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -62919,7 +62925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -63011,9 +63017,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -63093,7 +63099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -63185,9 +63191,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -63267,7 +63273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -63347,7 +63353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -63427,7 +63433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -63507,7 +63513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -63587,7 +63593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -63667,7 +63673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -63747,7 +63753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -63839,9 +63845,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -63921,7 +63927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -64001,7 +64007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -64081,7 +64087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -64161,7 +64167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -64241,7 +64247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -64321,7 +64327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -64401,7 +64407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -64481,7 +64487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -64561,7 +64567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -64641,7 +64647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -64721,7 +64727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>

--- a/Resultados/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_6m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_6B9F76BCE5D8A72DD1741CB3E5F0F9FCFB481709" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3DE694-3CEC-488F-932A-16C2F7DCC0B1}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_6B9F76BCE5D8A72DD1741CB3E5F0F9FCFB481709" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3B7932D-415A-4F03-B207-41248F5A177B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>field_16ha_100ha_18%_6m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -7947,13 +7950,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232C455E-7073-4DD0-BFE8-FDA86AE7DB28}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -7981,8 +7984,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8019,7 +8025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>1.21696</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>1.2889920000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>1.3329920000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>1.3620320000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8174,7 +8180,7 @@
         <v>1.3763839999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>1.3908</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>1.4016</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>1.4159680000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>1.4127359999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8329,7 +8335,7 @@
         <v>1.4135040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>1.412704</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>1.412704</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>1.4155520000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
